--- a/gcam-data-system/energy-data/assumptions/Tables_A52s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A52s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="A52.sector.csv" sheetId="5" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>elect_td_trn</t>
   </si>
   <si>
-    <t>H2 Enduse</t>
-  </si>
-  <si>
     <t># Transportation sector default supplysector information (units and logit exponents)</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t># Transportation technology default shareweights</t>
+  </si>
+  <si>
+    <t>H2 enduse</t>
   </si>
 </sst>
 </file>
@@ -4183,7 +4183,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4248,7 +4248,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4347,7 +4347,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4469,7 +4469,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4628,7 +4628,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4770,8 +4770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4785,7 +4785,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4858,7 +4858,7 @@
         <v>0.48</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:G4" si="0">F6*3</f>
+        <f t="shared" ref="F4" si="0">F6*3</f>
         <v>0.51</v>
       </c>
       <c r="G4" s="1">
@@ -4882,7 +4882,7 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <f>E7*1.4</f>
@@ -4996,7 +4996,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5134,7 +5134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>

--- a/gcam-data-system/energy-data/assumptions/Tables_A52s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A52s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="A52.sector.csv" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="49">
   <si>
     <t>technology</t>
   </si>
@@ -171,6 +171,9 @@
   <si>
     <t>H2 enduse</t>
   </si>
+  <si>
+    <t>final.energy</t>
+  </si>
 </sst>
 </file>
 
@@ -221,8 +224,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1805">
+  <cellStyleXfs count="1817">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2032,7 +2047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1805">
+  <cellStyles count="1817">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2935,6 +2950,12 @@
     <cellStyle name="Followed Hyperlink" xfId="1800" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1802" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1816" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3837,6 +3858,12 @@
     <cellStyle name="Hyperlink" xfId="1799" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1801" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1815" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4166,10 +4193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4181,12 +4208,12 @@
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4202,8 +4229,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -4218,6 +4248,9 @@
       </c>
       <c r="E3">
         <v>-1.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4330,10 +4363,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4402,11 +4435,11 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
+      <c r="D5">
+        <v>2020</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4414,13 +4447,13 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>2050</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4428,12 +4461,26 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
     </row>
@@ -4453,7 +4500,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4550,9 +4597,6 @@
       </c>
       <c r="E5">
         <v>2050</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
@@ -4770,7 +4814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4978,10 +5022,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4994,12 +5038,12 @@
     <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5013,13 +5057,16 @@
         <v>1971</v>
       </c>
       <c r="E2">
+        <v>2019</v>
+      </c>
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -5038,8 +5085,11 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -5058,8 +5108,11 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -5078,8 +5131,11 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -5098,8 +5154,11 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -5116,6 +5175,9 @@
         <v>1</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
